--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,10 +1069,10 @@
         <v>0.988698126269986</v>
       </c>
       <c r="D13">
-        <v>0.9934107449639449</v>
+        <v>0.9934107449639451</v>
       </c>
       <c r="E13">
-        <v>0.9975992194798803</v>
+        <v>0.9975992194798802</v>
       </c>
       <c r="F13">
         <v>0.9908120491052244</v>
@@ -1081,10 +1081,10 @@
         <v>0.988698126269986</v>
       </c>
       <c r="H13">
-        <v>0.9934107449639449</v>
+        <v>0.9934107449639451</v>
       </c>
       <c r="I13">
-        <v>0.9939544707871101</v>
+        <v>0.9939544707871102</v>
       </c>
       <c r="J13">
         <v>0.9956131854538658</v>
@@ -1096,7 +1096,7 @@
         <v>0.9908765495072024</v>
       </c>
       <c r="M13">
-        <v>0.9886723630412962</v>
+        <v>0.9886723630412961</v>
       </c>
       <c r="N13">
         <v>0.9955049822219126</v>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9257927643229712</v>
+        <v>0.9257927643229713</v>
       </c>
       <c r="D15">
         <v>1.044620041971311</v>
@@ -1178,7 +1178,7 @@
         <v>1.025591157596936</v>
       </c>
       <c r="G15">
-        <v>0.9257927643229712</v>
+        <v>0.9257927643229713</v>
       </c>
       <c r="H15">
         <v>1.044620041971311</v>
@@ -1196,7 +1196,7 @@
         <v>1.052356668898478</v>
       </c>
       <c r="M15">
-        <v>0.9256325400147357</v>
+        <v>0.9256325400147358</v>
       </c>
       <c r="N15">
         <v>1.001085833287926</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9945171146603328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.160794165004746</v>
+      </c>
+      <c r="D16">
+        <v>0.8636495835432553</v>
+      </c>
+      <c r="E16">
+        <v>1.19234943773164</v>
+      </c>
+      <c r="F16">
+        <v>0.8687421159298508</v>
+      </c>
+      <c r="G16">
+        <v>1.160794165004746</v>
+      </c>
+      <c r="H16">
+        <v>0.8636495835432553</v>
+      </c>
+      <c r="I16">
+        <v>1.075637167713381</v>
+      </c>
+      <c r="J16">
+        <v>0.9958781954106263</v>
+      </c>
+      <c r="K16">
+        <v>0.9521629437015247</v>
+      </c>
+      <c r="L16">
+        <v>0.8499167015456121</v>
+      </c>
+      <c r="M16">
+        <v>1.160794165004746</v>
+      </c>
+      <c r="N16">
+        <v>1.027999510637448</v>
+      </c>
+      <c r="O16">
+        <v>1.021383825552373</v>
+      </c>
+      <c r="P16">
+        <v>0.9948912888225796</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.160794165004746</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
@@ -1072,10 +1072,10 @@
         <v>0.988698126269986</v>
       </c>
       <c r="D13">
-        <v>0.9934107449639451</v>
+        <v>0.9934107449639449</v>
       </c>
       <c r="E13">
-        <v>0.9975992194798802</v>
+        <v>0.9975992194798803</v>
       </c>
       <c r="F13">
         <v>0.9908120491052244</v>
@@ -1084,10 +1084,10 @@
         <v>0.988698126269986</v>
       </c>
       <c r="H13">
-        <v>0.9934107449639451</v>
+        <v>0.9934107449639449</v>
       </c>
       <c r="I13">
-        <v>0.9939544707871102</v>
+        <v>0.9939544707871101</v>
       </c>
       <c r="J13">
         <v>0.9956131854538658</v>
@@ -1099,7 +1099,7 @@
         <v>0.9908765495072024</v>
       </c>
       <c r="M13">
-        <v>0.9886723630412961</v>
+        <v>0.9886723630412962</v>
       </c>
       <c r="N13">
         <v>0.9955049822219126</v>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9257927643229713</v>
+        <v>0.9257927643229712</v>
       </c>
       <c r="D15">
         <v>1.044620041971311</v>
@@ -1181,7 +1181,7 @@
         <v>1.025591157596936</v>
       </c>
       <c r="G15">
-        <v>0.9257927643229713</v>
+        <v>0.9257927643229712</v>
       </c>
       <c r="H15">
         <v>1.044620041971311</v>
@@ -1199,7 +1199,7 @@
         <v>1.052356668898478</v>
       </c>
       <c r="M15">
-        <v>0.9256325400147358</v>
+        <v>0.9256325400147357</v>
       </c>
       <c r="N15">
         <v>1.001085833287926</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.244548000000001</v>
+        <v>1.160794165004746</v>
       </c>
       <c r="D10">
-        <v>0.112552</v>
+        <v>0.8636495835432553</v>
       </c>
       <c r="E10">
-        <v>1.095380000000001</v>
+        <v>1.19234943773164</v>
       </c>
       <c r="F10">
-        <v>0.9895520000000008</v>
+        <v>0.8687421159298508</v>
       </c>
       <c r="G10">
-        <v>1.244548000000001</v>
+        <v>1.160794165004746</v>
       </c>
       <c r="H10">
-        <v>0.112552</v>
+        <v>0.8636495835432553</v>
       </c>
       <c r="I10">
-        <v>1.226851999999999</v>
+        <v>1.075637167713381</v>
       </c>
       <c r="J10">
-        <v>0.7474279999999991</v>
+        <v>0.9958781954106263</v>
       </c>
       <c r="K10">
-        <v>1.413472</v>
+        <v>0.9521629437015247</v>
       </c>
       <c r="L10">
-        <v>0.4968719999999999</v>
+        <v>0.8499167015456121</v>
       </c>
       <c r="M10">
-        <v>1.244548000000001</v>
+        <v>1.160794165004746</v>
       </c>
       <c r="N10">
-        <v>0.6039660000000004</v>
+        <v>1.027999510637448</v>
       </c>
       <c r="O10">
-        <v>0.8605080000000006</v>
+        <v>1.021383825552373</v>
       </c>
       <c r="P10">
-        <v>0.915832</v>
+        <v>0.9948912888225796</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>0.85322971272447</v>
       </c>
       <c r="D11">
-        <v>0.14</v>
+        <v>0.0816297148627851</v>
       </c>
       <c r="E11">
-        <v>0.42</v>
+        <v>1.842163795694577</v>
       </c>
       <c r="F11">
-        <v>1.222525000000001</v>
+        <v>0.7347324975457457</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>0.85322971272447</v>
       </c>
       <c r="H11">
-        <v>0.14</v>
+        <v>0.0816297148627851</v>
       </c>
       <c r="I11">
-        <v>0.9515249999999996</v>
+        <v>1.530015882695179</v>
       </c>
       <c r="J11">
-        <v>0.5697249999999997</v>
+        <v>0.9437119560936483</v>
       </c>
       <c r="K11">
-        <v>1.764449999999998</v>
+        <v>1.030452558297665</v>
       </c>
       <c r="L11">
-        <v>0.6373875000000008</v>
+        <v>0.343551470266682</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>0.85322971272447</v>
       </c>
       <c r="N11">
-        <v>0.28</v>
+        <v>0.9618967552786812</v>
       </c>
       <c r="O11">
-        <v>0.8456312500000003</v>
+        <v>0.8779389302068945</v>
       </c>
       <c r="P11">
-        <v>0.9132015624999998</v>
+        <v>0.919935948522594</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.350745845350396</v>
+        <v>0.8540659325661062</v>
       </c>
       <c r="D12">
-        <v>0.4883842641920018</v>
+        <v>0.08179733540637223</v>
       </c>
       <c r="E12">
-        <v>0.6664359366656012</v>
+        <v>1.839436282911211</v>
       </c>
       <c r="F12">
-        <v>1.121165841510399</v>
+        <v>0.735308527782781</v>
       </c>
       <c r="G12">
-        <v>1.350745845350396</v>
+        <v>0.8540659325661062</v>
       </c>
       <c r="H12">
-        <v>0.4883842641920018</v>
+        <v>0.08179733540637223</v>
       </c>
       <c r="I12">
-        <v>0.9727305456639951</v>
+        <v>1.529582797477758</v>
       </c>
       <c r="J12">
-        <v>0.7550823915520009</v>
+        <v>0.9433431519359954</v>
       </c>
       <c r="K12">
-        <v>1.429076401254398</v>
+        <v>1.031226202636011</v>
       </c>
       <c r="L12">
-        <v>0.7836487631872007</v>
+        <v>0.3435894545819086</v>
       </c>
       <c r="M12">
-        <v>1.350665731891197</v>
+        <v>0.8540659325661062</v>
       </c>
       <c r="N12">
-        <v>0.5774101004288015</v>
+        <v>0.9606168091587916</v>
       </c>
       <c r="O12">
-        <v>0.9066829719295992</v>
+        <v>0.8776520196666175</v>
       </c>
       <c r="P12">
-        <v>0.945908748671999</v>
+        <v>0.9197937106622678</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.988698126269986</v>
+        <v>0.8526300138102689</v>
       </c>
       <c r="D13">
-        <v>0.9934107449639449</v>
+        <v>0.08161538604354578</v>
       </c>
       <c r="E13">
-        <v>0.9975992194798803</v>
+        <v>1.843063226281356</v>
       </c>
       <c r="F13">
-        <v>0.9908120491052244</v>
+        <v>0.7343769985397989</v>
       </c>
       <c r="G13">
-        <v>0.988698126269986</v>
+        <v>0.8526300138102689</v>
       </c>
       <c r="H13">
-        <v>0.9934107449639449</v>
+        <v>0.08161538604354578</v>
       </c>
       <c r="I13">
-        <v>0.9939544707871101</v>
+        <v>1.530526519535791</v>
       </c>
       <c r="J13">
-        <v>0.9956131854538658</v>
+        <v>0.9440290070386067</v>
       </c>
       <c r="K13">
-        <v>0.9918297630143958</v>
+        <v>1.029817421312035</v>
       </c>
       <c r="L13">
-        <v>0.9908765495072024</v>
+        <v>0.343111211725477</v>
       </c>
       <c r="M13">
-        <v>0.9886723630412962</v>
+        <v>0.8526300138102689</v>
       </c>
       <c r="N13">
-        <v>0.9955049822219126</v>
+        <v>0.9623393061624507</v>
       </c>
       <c r="O13">
-        <v>0.9926300349547589</v>
+        <v>0.8779214061687423</v>
       </c>
       <c r="P13">
-        <v>0.9928492635727012</v>
+        <v>0.9198962230358599</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.061426167319558</v>
+        <v>1.244548000000001</v>
       </c>
       <c r="D14">
-        <v>1.045251713196472</v>
+        <v>0.112552</v>
       </c>
       <c r="E14">
-        <v>0.9206179041505751</v>
+        <v>1.095380000000001</v>
       </c>
       <c r="F14">
-        <v>1.027131350457392</v>
+        <v>0.9895520000000008</v>
       </c>
       <c r="G14">
-        <v>1.061426167319558</v>
+        <v>1.244548000000001</v>
       </c>
       <c r="H14">
-        <v>1.045251713196472</v>
+        <v>0.112552</v>
       </c>
       <c r="I14">
-        <v>0.9494049487046931</v>
+        <v>1.226851999999999</v>
       </c>
       <c r="J14">
-        <v>0.9601305858911097</v>
+        <v>0.7474279999999991</v>
       </c>
       <c r="K14">
-        <v>1.015687202764475</v>
+        <v>1.413472</v>
       </c>
       <c r="L14">
-        <v>1.035547049129866</v>
+        <v>0.4968719999999999</v>
       </c>
       <c r="M14">
-        <v>1.061426167319558</v>
+        <v>1.244548000000001</v>
       </c>
       <c r="N14">
-        <v>0.9829348086735236</v>
+        <v>0.6039660000000004</v>
       </c>
       <c r="O14">
-        <v>1.013606783780999</v>
+        <v>0.8605080000000006</v>
       </c>
       <c r="P14">
-        <v>1.001899615201768</v>
+        <v>0.915832</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9257927643229712</v>
+        <v>1.6</v>
       </c>
       <c r="D15">
-        <v>1.044620041971311</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0.9575516246045411</v>
+        <v>0.42</v>
       </c>
       <c r="F15">
-        <v>1.025591157596936</v>
+        <v>1.222525000000001</v>
       </c>
       <c r="G15">
-        <v>0.9257927643229712</v>
+        <v>1.6</v>
       </c>
       <c r="H15">
-        <v>1.044620041971311</v>
+        <v>0.14</v>
       </c>
       <c r="I15">
-        <v>0.9497536781052853</v>
+        <v>0.9515249999999996</v>
       </c>
       <c r="J15">
-        <v>1.022324550769879</v>
+        <v>0.5697249999999997</v>
       </c>
       <c r="K15">
-        <v>0.9781464310132604</v>
+        <v>1.764449999999998</v>
       </c>
       <c r="L15">
-        <v>1.052356668898478</v>
+        <v>0.6373875000000008</v>
       </c>
       <c r="M15">
-        <v>0.9256325400147357</v>
+        <v>1.6</v>
       </c>
       <c r="N15">
-        <v>1.001085833287926</v>
+        <v>0.28</v>
       </c>
       <c r="O15">
-        <v>0.9883888971239398</v>
+        <v>0.8456312500000003</v>
       </c>
       <c r="P15">
-        <v>0.9945171146603328</v>
+        <v>0.9132015624999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.160794165004746</v>
+        <v>1.350745845350396</v>
       </c>
       <c r="D16">
-        <v>0.8636495835432553</v>
+        <v>0.4883842641920018</v>
       </c>
       <c r="E16">
-        <v>1.19234943773164</v>
+        <v>0.6664359366656012</v>
       </c>
       <c r="F16">
-        <v>0.8687421159298508</v>
+        <v>1.121165841510399</v>
       </c>
       <c r="G16">
-        <v>1.160794165004746</v>
+        <v>1.350745845350396</v>
       </c>
       <c r="H16">
-        <v>0.8636495835432553</v>
+        <v>0.4883842641920018</v>
       </c>
       <c r="I16">
-        <v>1.075637167713381</v>
+        <v>0.9727305456639951</v>
       </c>
       <c r="J16">
-        <v>0.9958781954106263</v>
+        <v>0.7550823915520009</v>
       </c>
       <c r="K16">
-        <v>0.9521629437015247</v>
+        <v>1.429076401254398</v>
       </c>
       <c r="L16">
-        <v>0.8499167015456121</v>
+        <v>0.7836487631872007</v>
       </c>
       <c r="M16">
-        <v>1.160794165004746</v>
+        <v>1.350665731891197</v>
       </c>
       <c r="N16">
-        <v>1.027999510637448</v>
+        <v>0.5774101004288015</v>
       </c>
       <c r="O16">
-        <v>1.021383825552373</v>
+        <v>0.9066829719295992</v>
       </c>
       <c r="P16">
-        <v>0.9948912888225796</v>
+        <v>0.945908748671999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.988698126269986</v>
+      </c>
+      <c r="D17">
+        <v>0.9934107449639451</v>
+      </c>
+      <c r="E17">
+        <v>0.9975992194798802</v>
+      </c>
+      <c r="F17">
+        <v>0.9908120491052244</v>
+      </c>
+      <c r="G17">
+        <v>0.988698126269986</v>
+      </c>
+      <c r="H17">
+        <v>0.9934107449639451</v>
+      </c>
+      <c r="I17">
+        <v>0.9939544707871102</v>
+      </c>
+      <c r="J17">
+        <v>0.9956131854538658</v>
+      </c>
+      <c r="K17">
+        <v>0.9918297630143958</v>
+      </c>
+      <c r="L17">
+        <v>0.9908765495072024</v>
+      </c>
+      <c r="M17">
+        <v>0.9886723630412961</v>
+      </c>
+      <c r="N17">
+        <v>0.9955049822219126</v>
+      </c>
+      <c r="O17">
+        <v>0.9926300349547589</v>
+      </c>
+      <c r="P17">
+        <v>0.9928492635727012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.061426167319558</v>
+      </c>
+      <c r="D18">
+        <v>1.045251713196472</v>
+      </c>
+      <c r="E18">
+        <v>0.9206179041505751</v>
+      </c>
+      <c r="F18">
+        <v>1.027131350457392</v>
+      </c>
+      <c r="G18">
+        <v>1.061426167319558</v>
+      </c>
+      <c r="H18">
+        <v>1.045251713196472</v>
+      </c>
+      <c r="I18">
+        <v>0.9494049487046931</v>
+      </c>
+      <c r="J18">
+        <v>0.9601305858911097</v>
+      </c>
+      <c r="K18">
+        <v>1.015687202764475</v>
+      </c>
+      <c r="L18">
+        <v>1.035547049129866</v>
+      </c>
+      <c r="M18">
+        <v>1.061426167319558</v>
+      </c>
+      <c r="N18">
+        <v>0.9829348086735236</v>
+      </c>
+      <c r="O18">
+        <v>1.013606783780999</v>
+      </c>
+      <c r="P18">
+        <v>1.001899615201768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9257927643229713</v>
+      </c>
+      <c r="D19">
+        <v>1.044620041971311</v>
+      </c>
+      <c r="E19">
+        <v>0.9575516246045411</v>
+      </c>
+      <c r="F19">
+        <v>1.025591157596936</v>
+      </c>
+      <c r="G19">
+        <v>0.9257927643229713</v>
+      </c>
+      <c r="H19">
+        <v>1.044620041971311</v>
+      </c>
+      <c r="I19">
+        <v>0.9497536781052853</v>
+      </c>
+      <c r="J19">
+        <v>1.022324550769879</v>
+      </c>
+      <c r="K19">
+        <v>0.9781464310132604</v>
+      </c>
+      <c r="L19">
+        <v>1.052356668898478</v>
+      </c>
+      <c r="M19">
+        <v>0.9256325400147358</v>
+      </c>
+      <c r="N19">
+        <v>1.001085833287926</v>
+      </c>
+      <c r="O19">
+        <v>0.9883888971239398</v>
+      </c>
+      <c r="P19">
+        <v>0.9945171146603328</v>
       </c>
     </row>
   </sheetData>
